--- a/excels/check/1_10.xlsx
+++ b/excels/check/1_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20400" windowHeight="8265"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20400" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="length change1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="179">
   <si>
     <t>maze</t>
   </si>
@@ -708,7 +708,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -754,14 +754,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Złe" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -773,13 +773,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1106,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5249,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" ref="I84:N84" si="1">COUNTIF(I2:I82,37) / 81</f>
+        <f t="shared" ref="I84:L84" si="1">COUNTIF(I2:I82,37) / 81</f>
         <v>0</v>
       </c>
       <c r="J84">
@@ -5307,7 +5300,7 @@
         <v>15395.543209876543</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="G85:I85" si="4">AVERAGE(H2:H82)</f>
+        <f t="shared" ref="H85:I85" si="4">AVERAGE(H2:H82)</f>
         <v>21409.753086419754</v>
       </c>
       <c r="I85">
@@ -5357,8 +5350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R82" sqref="M2:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5367,7 +5360,7 @@
     <col min="2" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="2.625" customWidth="1"/>
+    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5405,6 +5398,9 @@
       <c r="L1" t="s">
         <v>91</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
       <c r="N1" t="s">
         <v>92</v>
       </c>
@@ -5455,6 +5451,9 @@
       <c r="L2">
         <v>221</v>
       </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
       <c r="N2">
         <v>73</v>
       </c>
@@ -5505,6 +5504,9 @@
       <c r="L3">
         <v>175</v>
       </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
       <c r="N3">
         <v>79</v>
       </c>
@@ -5555,6 +5557,9 @@
       <c r="L4">
         <v>227</v>
       </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
       <c r="N4">
         <v>35</v>
       </c>
@@ -5605,6 +5610,9 @@
       <c r="L5">
         <v>173</v>
       </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
       <c r="N5">
         <v>29</v>
       </c>
@@ -5655,6 +5663,9 @@
       <c r="L6">
         <v>121</v>
       </c>
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
       <c r="N6">
         <v>115</v>
       </c>
@@ -5705,6 +5716,9 @@
       <c r="L7">
         <v>49202</v>
       </c>
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
       <c r="N7">
         <v>49136</v>
       </c>
@@ -5755,6 +5769,9 @@
       <c r="L8">
         <v>48885</v>
       </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
       <c r="N8">
         <v>49325</v>
       </c>
@@ -5805,6 +5822,9 @@
       <c r="L9">
         <v>48795</v>
       </c>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
       <c r="N9">
         <v>51536</v>
       </c>
@@ -5855,6 +5875,9 @@
       <c r="L10">
         <v>51832</v>
       </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
       <c r="N10">
         <v>48511</v>
       </c>
@@ -5905,6 +5928,9 @@
       <c r="L11">
         <v>265</v>
       </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
       <c r="N11">
         <v>67</v>
       </c>
@@ -5955,6 +5981,9 @@
       <c r="L12">
         <v>169</v>
       </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
       <c r="N12">
         <v>21</v>
       </c>
@@ -6005,6 +6034,9 @@
       <c r="L13">
         <v>219</v>
       </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
       <c r="N13">
         <v>65</v>
       </c>
@@ -6055,6 +6087,9 @@
       <c r="L14">
         <v>173</v>
       </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
       <c r="N14">
         <v>57</v>
       </c>
@@ -6105,6 +6140,9 @@
       <c r="L15">
         <v>79</v>
       </c>
+      <c r="M15" t="s">
+        <v>111</v>
+      </c>
       <c r="N15">
         <v>77</v>
       </c>
@@ -6155,6 +6193,9 @@
       <c r="L16">
         <v>50458</v>
       </c>
+      <c r="M16" t="s">
+        <v>112</v>
+      </c>
       <c r="N16">
         <v>52262</v>
       </c>
@@ -6205,6 +6246,9 @@
       <c r="L17">
         <v>48787</v>
       </c>
+      <c r="M17" t="s">
+        <v>113</v>
+      </c>
       <c r="N17">
         <v>49865</v>
       </c>
@@ -6255,6 +6299,9 @@
       <c r="L18">
         <v>51785</v>
       </c>
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
       <c r="N18">
         <v>52358</v>
       </c>
@@ -6305,6 +6352,9 @@
       <c r="L19">
         <v>52779</v>
       </c>
+      <c r="M19" t="s">
+        <v>115</v>
+      </c>
       <c r="N19">
         <v>49051</v>
       </c>
@@ -6355,6 +6405,9 @@
       <c r="L20">
         <v>223</v>
       </c>
+      <c r="M20" t="s">
+        <v>116</v>
+      </c>
       <c r="N20">
         <v>55</v>
       </c>
@@ -6405,6 +6458,9 @@
       <c r="L21">
         <v>219</v>
       </c>
+      <c r="M21" t="s">
+        <v>117</v>
+      </c>
       <c r="N21">
         <v>23</v>
       </c>
@@ -6455,6 +6511,9 @@
       <c r="L22">
         <v>227</v>
       </c>
+      <c r="M22" t="s">
+        <v>118</v>
+      </c>
       <c r="N22">
         <v>77</v>
       </c>
@@ -6505,6 +6564,9 @@
       <c r="L23">
         <v>169</v>
       </c>
+      <c r="M23" t="s">
+        <v>119</v>
+      </c>
       <c r="N23">
         <v>47</v>
       </c>
@@ -6555,6 +6617,9 @@
       <c r="L24">
         <v>49</v>
       </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
       <c r="N24">
         <v>67</v>
       </c>
@@ -6605,6 +6670,9 @@
       <c r="L25">
         <v>49075</v>
       </c>
+      <c r="M25" t="s">
+        <v>121</v>
+      </c>
       <c r="N25">
         <v>48032</v>
       </c>
@@ -6655,6 +6723,9 @@
       <c r="L26">
         <v>48913</v>
       </c>
+      <c r="M26" t="s">
+        <v>122</v>
+      </c>
       <c r="N26">
         <v>49790</v>
       </c>
@@ -6705,6 +6776,9 @@
       <c r="L27">
         <v>48747</v>
       </c>
+      <c r="M27" t="s">
+        <v>123</v>
+      </c>
       <c r="N27">
         <v>48439</v>
       </c>
@@ -6755,6 +6829,9 @@
       <c r="L28">
         <v>51468</v>
       </c>
+      <c r="M28" t="s">
+        <v>124</v>
+      </c>
       <c r="N28">
         <v>49399</v>
       </c>
@@ -6805,6 +6882,9 @@
       <c r="L29">
         <v>201</v>
       </c>
+      <c r="M29" t="s">
+        <v>125</v>
+      </c>
       <c r="N29">
         <v>17</v>
       </c>
@@ -6855,6 +6935,9 @@
       <c r="L30">
         <v>167</v>
       </c>
+      <c r="M30" t="s">
+        <v>126</v>
+      </c>
       <c r="N30">
         <v>43</v>
       </c>
@@ -6905,6 +6988,9 @@
       <c r="L31">
         <v>163</v>
       </c>
+      <c r="M31" t="s">
+        <v>127</v>
+      </c>
       <c r="N31">
         <v>69</v>
       </c>
@@ -6955,6 +7041,9 @@
       <c r="L32">
         <v>151</v>
       </c>
+      <c r="M32" t="s">
+        <v>128</v>
+      </c>
       <c r="N32">
         <v>29</v>
       </c>
@@ -7005,6 +7094,9 @@
       <c r="L33">
         <v>63</v>
       </c>
+      <c r="M33" t="s">
+        <v>129</v>
+      </c>
       <c r="N33">
         <v>17</v>
       </c>
@@ -7055,6 +7147,9 @@
       <c r="L34">
         <v>48097</v>
       </c>
+      <c r="M34" t="s">
+        <v>130</v>
+      </c>
       <c r="N34">
         <v>51402</v>
       </c>
@@ -7105,6 +7200,9 @@
       <c r="L35">
         <v>48815</v>
       </c>
+      <c r="M35" t="s">
+        <v>131</v>
+      </c>
       <c r="N35">
         <v>52652</v>
       </c>
@@ -7155,6 +7253,9 @@
       <c r="L36">
         <v>48371</v>
       </c>
+      <c r="M36" t="s">
+        <v>132</v>
+      </c>
       <c r="N36">
         <v>49558</v>
       </c>
@@ -7205,6 +7306,9 @@
       <c r="L37">
         <v>49119</v>
       </c>
+      <c r="M37" t="s">
+        <v>133</v>
+      </c>
       <c r="N37">
         <v>47218</v>
       </c>
@@ -7255,6 +7359,9 @@
       <c r="L38">
         <v>207</v>
       </c>
+      <c r="M38" t="s">
+        <v>134</v>
+      </c>
       <c r="N38">
         <v>81</v>
       </c>
@@ -7305,6 +7412,9 @@
       <c r="L39">
         <v>223</v>
       </c>
+      <c r="M39" t="s">
+        <v>135</v>
+      </c>
       <c r="N39">
         <v>35</v>
       </c>
@@ -7355,6 +7465,9 @@
       <c r="L40">
         <v>115</v>
       </c>
+      <c r="M40" t="s">
+        <v>136</v>
+      </c>
       <c r="N40">
         <v>51</v>
       </c>
@@ -7405,6 +7518,9 @@
       <c r="L41">
         <v>159</v>
       </c>
+      <c r="M41" t="s">
+        <v>137</v>
+      </c>
       <c r="N41">
         <v>27</v>
       </c>
@@ -7455,6 +7571,9 @@
       <c r="L42">
         <v>79</v>
       </c>
+      <c r="M42" t="s">
+        <v>138</v>
+      </c>
       <c r="N42">
         <v>87</v>
       </c>
@@ -7505,6 +7624,9 @@
       <c r="L43">
         <v>48800</v>
       </c>
+      <c r="M43" t="s">
+        <v>139</v>
+      </c>
       <c r="N43">
         <v>48544</v>
       </c>
@@ -7555,6 +7677,9 @@
       <c r="L44">
         <v>51006</v>
       </c>
+      <c r="M44" t="s">
+        <v>140</v>
+      </c>
       <c r="N44">
         <v>48498</v>
       </c>
@@ -7605,6 +7730,9 @@
       <c r="L45">
         <v>47174</v>
       </c>
+      <c r="M45" t="s">
+        <v>141</v>
+      </c>
       <c r="N45">
         <v>49177</v>
       </c>
@@ -7655,6 +7783,9 @@
       <c r="L46">
         <v>48833</v>
       </c>
+      <c r="M46" t="s">
+        <v>142</v>
+      </c>
       <c r="N46">
         <v>48642</v>
       </c>
@@ -7705,6 +7836,9 @@
       <c r="L47">
         <v>257</v>
       </c>
+      <c r="M47" t="s">
+        <v>143</v>
+      </c>
       <c r="N47">
         <v>15</v>
       </c>
@@ -7755,6 +7889,9 @@
       <c r="L48">
         <v>177</v>
       </c>
+      <c r="M48" t="s">
+        <v>144</v>
+      </c>
       <c r="N48">
         <v>61</v>
       </c>
@@ -7805,6 +7942,9 @@
       <c r="L49">
         <v>151</v>
       </c>
+      <c r="M49" t="s">
+        <v>145</v>
+      </c>
       <c r="N49">
         <v>97</v>
       </c>
@@ -7855,6 +7995,9 @@
       <c r="L50">
         <v>159</v>
       </c>
+      <c r="M50" t="s">
+        <v>146</v>
+      </c>
       <c r="N50">
         <v>33</v>
       </c>
@@ -7905,6 +8048,9 @@
       <c r="L51">
         <v>89</v>
       </c>
+      <c r="M51" t="s">
+        <v>147</v>
+      </c>
       <c r="N51">
         <v>71</v>
       </c>
@@ -7955,6 +8101,9 @@
       <c r="L52">
         <v>49645</v>
       </c>
+      <c r="M52" t="s">
+        <v>148</v>
+      </c>
       <c r="N52">
         <v>49432</v>
       </c>
@@ -8005,6 +8154,9 @@
       <c r="L53">
         <v>49086</v>
       </c>
+      <c r="M53" t="s">
+        <v>149</v>
+      </c>
       <c r="N53">
         <v>48948</v>
       </c>
@@ -8055,6 +8207,9 @@
       <c r="L54">
         <v>51619</v>
       </c>
+      <c r="M54" t="s">
+        <v>150</v>
+      </c>
       <c r="N54">
         <v>48394</v>
       </c>
@@ -8105,6 +8260,9 @@
       <c r="L55">
         <v>48879</v>
       </c>
+      <c r="M55" t="s">
+        <v>151</v>
+      </c>
       <c r="N55">
         <v>48717</v>
       </c>
@@ -8155,6 +8313,9 @@
       <c r="L56">
         <v>175</v>
       </c>
+      <c r="M56" t="s">
+        <v>152</v>
+      </c>
       <c r="N56">
         <v>15</v>
       </c>
@@ -8205,6 +8366,9 @@
       <c r="L57">
         <v>39</v>
       </c>
+      <c r="M57" t="s">
+        <v>153</v>
+      </c>
       <c r="N57">
         <v>85</v>
       </c>
@@ -8255,6 +8419,9 @@
       <c r="L58">
         <v>225</v>
       </c>
+      <c r="M58" t="s">
+        <v>154</v>
+      </c>
       <c r="N58">
         <v>39</v>
       </c>
@@ -8305,6 +8472,9 @@
       <c r="L59">
         <v>81</v>
       </c>
+      <c r="M59" t="s">
+        <v>155</v>
+      </c>
       <c r="N59">
         <v>103</v>
       </c>
@@ -8355,6 +8525,9 @@
       <c r="L60">
         <v>93</v>
       </c>
+      <c r="M60" t="s">
+        <v>156</v>
+      </c>
       <c r="N60">
         <v>141</v>
       </c>
@@ -8405,6 +8578,9 @@
       <c r="L61">
         <v>48271</v>
       </c>
+      <c r="M61" t="s">
+        <v>157</v>
+      </c>
       <c r="N61">
         <v>47669</v>
       </c>
@@ -8455,6 +8631,9 @@
       <c r="L62">
         <v>49698</v>
       </c>
+      <c r="M62" t="s">
+        <v>158</v>
+      </c>
       <c r="N62">
         <v>48316</v>
       </c>
@@ -8505,6 +8684,9 @@
       <c r="L63">
         <v>49466</v>
       </c>
+      <c r="M63" t="s">
+        <v>159</v>
+      </c>
       <c r="N63">
         <v>49560</v>
       </c>
@@ -8555,6 +8737,9 @@
       <c r="L64">
         <v>49584</v>
       </c>
+      <c r="M64" t="s">
+        <v>160</v>
+      </c>
       <c r="N64">
         <v>15</v>
       </c>
@@ -8605,6 +8790,9 @@
       <c r="L65">
         <v>275</v>
       </c>
+      <c r="M65" t="s">
+        <v>161</v>
+      </c>
       <c r="N65">
         <v>27</v>
       </c>
@@ -8655,6 +8843,9 @@
       <c r="L66">
         <v>211</v>
       </c>
+      <c r="M66" t="s">
+        <v>162</v>
+      </c>
       <c r="N66">
         <v>37</v>
       </c>
@@ -8705,6 +8896,9 @@
       <c r="L67">
         <v>199</v>
       </c>
+      <c r="M67" t="s">
+        <v>163</v>
+      </c>
       <c r="N67">
         <v>23</v>
       </c>
@@ -8755,6 +8949,9 @@
       <c r="L68">
         <v>61</v>
       </c>
+      <c r="M68" t="s">
+        <v>164</v>
+      </c>
       <c r="N68">
         <v>41</v>
       </c>
@@ -8805,6 +9002,9 @@
       <c r="L69">
         <v>125</v>
       </c>
+      <c r="M69" t="s">
+        <v>165</v>
+      </c>
       <c r="N69">
         <v>149</v>
       </c>
@@ -8855,6 +9055,9 @@
       <c r="L70">
         <v>48968</v>
       </c>
+      <c r="M70" t="s">
+        <v>166</v>
+      </c>
       <c r="N70">
         <v>49248</v>
       </c>
@@ -8905,6 +9108,9 @@
       <c r="L71">
         <v>49702</v>
       </c>
+      <c r="M71" t="s">
+        <v>167</v>
+      </c>
       <c r="N71">
         <v>49443</v>
       </c>
@@ -8955,6 +9161,9 @@
       <c r="L72">
         <v>48821</v>
       </c>
+      <c r="M72" t="s">
+        <v>168</v>
+      </c>
       <c r="N72">
         <v>49443</v>
       </c>
@@ -9005,6 +9214,9 @@
       <c r="L73">
         <v>49693</v>
       </c>
+      <c r="M73" t="s">
+        <v>169</v>
+      </c>
       <c r="N73">
         <v>48972</v>
       </c>
@@ -9055,6 +9267,9 @@
       <c r="L74">
         <v>201</v>
       </c>
+      <c r="M74" t="s">
+        <v>170</v>
+      </c>
       <c r="N74">
         <v>45</v>
       </c>
@@ -9105,6 +9320,9 @@
       <c r="L75">
         <v>229</v>
       </c>
+      <c r="M75" t="s">
+        <v>171</v>
+      </c>
       <c r="N75">
         <v>37</v>
       </c>
@@ -9155,6 +9373,9 @@
       <c r="L76">
         <v>219</v>
       </c>
+      <c r="M76" t="s">
+        <v>172</v>
+      </c>
       <c r="N76">
         <v>29</v>
       </c>
@@ -9205,6 +9426,9 @@
       <c r="L77">
         <v>181</v>
       </c>
+      <c r="M77" t="s">
+        <v>173</v>
+      </c>
       <c r="N77">
         <v>23</v>
       </c>
@@ -9255,6 +9479,9 @@
       <c r="L78">
         <v>55</v>
       </c>
+      <c r="M78" t="s">
+        <v>174</v>
+      </c>
       <c r="N78">
         <v>75</v>
       </c>
@@ -9305,6 +9532,9 @@
       <c r="L79">
         <v>50593</v>
       </c>
+      <c r="M79" t="s">
+        <v>175</v>
+      </c>
       <c r="N79">
         <v>48670</v>
       </c>
@@ -9355,6 +9585,9 @@
       <c r="L80">
         <v>52426</v>
       </c>
+      <c r="M80" t="s">
+        <v>176</v>
+      </c>
       <c r="N80">
         <v>48664</v>
       </c>
@@ -9405,6 +9638,9 @@
       <c r="L81">
         <v>49370</v>
       </c>
+      <c r="M81" t="s">
+        <v>177</v>
+      </c>
       <c r="N81">
         <v>48315</v>
       </c>
@@ -9454,6 +9690,9 @@
       </c>
       <c r="L82">
         <v>49164</v>
+      </c>
+      <c r="M82" t="s">
+        <v>178</v>
       </c>
       <c r="N82">
         <v>48204</v>
@@ -9497,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" ref="I84:N84" si="1">COUNTIF(I2:I82,33) / 81</f>
+        <f t="shared" ref="I84:L84" si="1">COUNTIF(I2:I82,33) / 81</f>
         <v>0</v>
       </c>
       <c r="J84">
@@ -9555,7 +9794,7 @@
         <v>20104.320987654322</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="G85:H85" si="4">AVERAGE(H2:H82)</f>
+        <f t="shared" ref="H85" si="4">AVERAGE(H2:H82)</f>
         <v>21091.456790123455</v>
       </c>
       <c r="I85">
@@ -9604,8 +9843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="P84" sqref="P84:R84"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13802,11 +14041,11 @@
         <v>9304.0493827160499</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="G85:H85" si="4">AVERAGE(H2:H82)</f>
+        <f t="shared" ref="H85" si="4">AVERAGE(H2:H82)</f>
         <v>16293.012345679012</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85:M85" si="5">AVERAGE(I2:I82)</f>
+        <f t="shared" ref="I85:L85" si="5">AVERAGE(I2:I82)</f>
         <v>13028.728395061727</v>
       </c>
       <c r="J85">
@@ -13851,7 +14090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A69" sqref="A69:XFD72"/>
     </sheetView>
   </sheetViews>
@@ -17963,7 +18202,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P82">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17975,7 +18214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D11" sqref="A1:P82"/>
     </sheetView>
   </sheetViews>
@@ -22088,7 +22327,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P82">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22100,7 +22339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -26378,7 +26617,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:R82">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
